--- a/files/ecv_cluster.xlsx
+++ b/files/ecv_cluster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E39F1EF-D1BB-8144-B620-2731C73E1C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3D1DC3-C466-A446-95A1-68FD62422ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{48641527-5FDB-43DB-B776-5C8AB8186172}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t xml:space="preserve">Variable </t>
   </si>
@@ -153,9 +153,6 @@
     <t xml:space="preserve">https://www.ine.es/jaxiT3/Tabla.htm?t=10011&amp;L=0 </t>
   </si>
   <si>
-    <t>ecv_cluster</t>
-  </si>
-  <si>
     <t>CCAA</t>
   </si>
   <si>
@@ -189,112 +186,7 @@
     <t>Municipios</t>
   </si>
   <si>
-    <t>Seccion</t>
-  </si>
-  <si>
-    <t>Personas</t>
-  </si>
-  <si>
-    <t>Hogares</t>
-  </si>
-  <si>
-    <t>Empresas</t>
-  </si>
-  <si>
-    <t>CNAE</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Ocupación</t>
-  </si>
-  <si>
-    <t>Empleo Relación</t>
-  </si>
-  <si>
-    <t>Edad</t>
-  </si>
-  <si>
-    <t>Estudios</t>
-  </si>
-  <si>
-    <t>Agricultura y medio ambiente</t>
-  </si>
-  <si>
-    <t>Ciencia y tecnología</t>
-  </si>
-  <si>
     <t>Demografía y población</t>
-  </si>
-  <si>
-    <t>Economía</t>
-  </si>
-  <si>
-    <t>Industria, energía y construcción</t>
-  </si>
-  <si>
-    <t>Mercado laboral</t>
-  </si>
-  <si>
-    <t>Servicios</t>
-  </si>
-  <si>
-    <t>Nivel y condiciones de vida</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Contabilidad</t>
-  </si>
-  <si>
-    <t>EPA</t>
-  </si>
-  <si>
-    <t>IPC</t>
-  </si>
-  <si>
-    <t>ECV</t>
-  </si>
-  <si>
-    <t>EPF</t>
-  </si>
-  <si>
-    <t>Variable cuantitativa discreta</t>
-  </si>
-  <si>
-    <t>Variable cuantitativa continua</t>
-  </si>
-  <si>
-    <t>Variable cualitativa</t>
-  </si>
-  <si>
-    <t>Regresión lineal</t>
-  </si>
-  <si>
-    <t>Regresión logística</t>
-  </si>
-  <si>
-    <t>Series temporales multivariantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Series temporales univariantes </t>
-  </si>
-  <si>
-    <t>Análisis de componentes principales</t>
-  </si>
-  <si>
-    <t>Análisis clúster</t>
-  </si>
-  <si>
-    <t>Análisis factorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Análisis descriptivo </t>
   </si>
   <si>
     <r>
@@ -360,6 +252,117 @@
     <t>Tasa personas con carencia material severa</t>
   </si>
   <si>
+    <t>Tipo de Análisis</t>
+  </si>
+  <si>
+    <t>Sección</t>
+  </si>
+  <si>
+    <t>Tema</t>
+  </si>
+  <si>
+    <t>Agricultura, ganadería, selvicultura y caza</t>
+  </si>
+  <si>
+    <t>Pesca y acuicultura</t>
+  </si>
+  <si>
+    <t>Medio ambiente y desarrollo sostenible</t>
+  </si>
+  <si>
+    <t>Extracción de productos energéticos y energía en general</t>
+  </si>
+  <si>
+    <t>Minería e industria</t>
+  </si>
+  <si>
+    <t>Construcción y vivienda</t>
+  </si>
+  <si>
+    <t>Servicios (estadísticas generales)</t>
+  </si>
+  <si>
+    <t>Comercio interior y exterior</t>
+  </si>
+  <si>
+    <t>Transporte y actividades conexas</t>
+  </si>
+  <si>
+    <t>Estadísticas de empresas y unidades de producción no referidas a sectores particulares</t>
+  </si>
+  <si>
+    <t>Financieras y seguros</t>
+  </si>
+  <si>
+    <t>Precios</t>
+  </si>
+  <si>
+    <t>Mercado laboral y salarios</t>
+  </si>
+  <si>
+    <t>Cuentas económicas</t>
+  </si>
+  <si>
+    <t>Administraciones públicas y asociaciones</t>
+  </si>
+  <si>
+    <t>Tecnologías de la información y las comunicaciones (TIC)</t>
+  </si>
+  <si>
+    <t>Hostelería y turismo</t>
+  </si>
+  <si>
+    <t>Cultura, deporte y ocio</t>
+  </si>
+  <si>
+    <t>Educación y formación</t>
+  </si>
+  <si>
+    <t>Investigación científica y desarrollo tecnológico</t>
+  </si>
+  <si>
+    <t>Salud</t>
+  </si>
+  <si>
+    <t>Protección social y servicios sociales</t>
+  </si>
+  <si>
+    <t>Seguridad y justicia</t>
+  </si>
+  <si>
+    <t>Nivel, calidad y condiciones de vida</t>
+  </si>
+  <si>
+    <t>Estadísticas no desglosables por sector o tema</t>
+  </si>
+  <si>
+    <t>Normalización y metodología general</t>
+  </si>
+  <si>
+    <t>Variable Respuesta</t>
+  </si>
+  <si>
+    <t>Contiene variables</t>
+  </si>
+  <si>
+    <t>Técnica de Estudio</t>
+  </si>
+  <si>
+    <t>Regresión Logística</t>
+  </si>
+  <si>
+    <t>Análisis Discriminante: LDA</t>
+  </si>
+  <si>
+    <t>Análisis Discriminante: QDA</t>
+  </si>
+  <si>
+    <t>Operaciones Estadísticas</t>
+  </si>
+  <si>
+    <t>30453 Encuesta de Condiciones de Vida (ECV)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -380,7 +383,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Se pretende hacer un Análisis Cluster empleando el procedimiento Cluster Jerárquico / K-Means de las **CCAA** en función a las variables **taspobex** y **tascar** s:
+Análisis Cluster empleando el procedimiento Cluster Jerárquico / K-Means de las CCAA en función de las variables taspobex y tascar:
 </t>
     </r>
     <r>
@@ -478,12 +481,63 @@
       <t>5.Ver métodos Elbrow y Silhouette si hay otro número óptimo de clusters y en ese caso repetir el estudio.</t>
     </r>
   </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Cuantitativa Discreta</t>
+  </si>
+  <si>
+    <t>Cuantitativa Continua</t>
+  </si>
+  <si>
+    <t>Cualitativa Binaria</t>
+  </si>
+  <si>
+    <t>Cualitativa Politómica</t>
+  </si>
+  <si>
+    <t>Regresión Lineal Simple</t>
+  </si>
+  <si>
+    <t>Regresión Lineal Múltiple</t>
+  </si>
+  <si>
+    <t>Reducción Dimensión: Componentes principales</t>
+  </si>
+  <si>
+    <t>Reducción Dimensión: Análisis Factorial</t>
+  </si>
+  <si>
+    <t>Cluster Jerárquico</t>
+  </si>
+  <si>
+    <t>Cluster K-Means</t>
+  </si>
+  <si>
+    <t>Series Temporales ARIMA</t>
+  </si>
+  <si>
+    <t>Series Temporales Holt Winters</t>
+  </si>
+  <si>
+    <t>Series Temporales VEC</t>
+  </si>
+  <si>
+    <t>Desagregación Territorial</t>
+  </si>
+  <si>
+    <t>Estadística Experimental</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,8 +596,31 @@
       <color theme="0"/>
       <name val="Calibri (Cuerpo)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,54 +629,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor rgb="FFD6DCE4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DDE4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEAAAA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E2F7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E2F7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -759,6 +854,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -767,17 +899,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -788,95 +914,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1199,176 +1386,176 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:G22"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
     </row>
     <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
+      <c r="B13" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
     </row>
     <row r="22" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1384,7 +1571,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1393,24 +1580,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2">
@@ -1427,7 +1614,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3">
@@ -1444,7 +1631,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
@@ -1461,7 +1648,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B5">
@@ -1478,7 +1665,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B6">
@@ -1495,7 +1682,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B7">
@@ -1512,7 +1699,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B8">
@@ -1529,7 +1716,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B9">
@@ -1546,7 +1733,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B10">
@@ -1563,7 +1750,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B11">
@@ -1580,7 +1767,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B12">
@@ -1597,7 +1784,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B13">
@@ -1614,7 +1801,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B14">
@@ -1631,7 +1818,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B15">
@@ -1648,7 +1835,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B16">
@@ -1665,7 +1852,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B17">
@@ -1682,7 +1869,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B18">
@@ -1699,7 +1886,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B19">
@@ -1716,7 +1903,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B20">
@@ -1742,535 +1929,760 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="31"/>
-    <col min="2" max="2" width="36.5" style="21" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="16"/>
+    <col min="2" max="2" width="36.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1"/>
-    <col min="4" max="4" width="15.1640625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="20" style="25" customWidth="1"/>
-    <col min="6" max="6" width="35" style="21" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="21" customWidth="1"/>
-    <col min="8" max="8" width="31.5" style="21" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="25"/>
+    <col min="4" max="4" width="15.1640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="20" style="10" customWidth="1"/>
+    <col min="6" max="6" width="35" style="6" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="31.5" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="27" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="43">
         <v>2021</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="43" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="44" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="43"/>
+      <c r="B5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
     <mergeCell ref="H3:H6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" tooltip="Ver ficha del IOE actual" display="https://www.ine.es/dyngs/IOE/es/operacion.htm?id=1259931119237" xr:uid="{0230C4E0-B706-FB42-9C81-0E2BEDACC639}"/>
-    <hyperlink ref="F3" r:id="rId2" tooltip="Ver ficha del IOE actual" display="https://www.ine.es/dyngs/IOE/es/operacion.htm?id=1259931119237" xr:uid="{0230C4E0-B706-FB42-9C81-0E2BEDACC639}"/>
-    <hyperlink ref="H3" r:id="rId3" xr:uid="{22E45C7F-5F15-402B-85E0-7401314F8F49}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{22E45C7F-5F15-402B-85E0-7401314F8F49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121D932E-B05E-4517-B24D-C64F8A46B4F5}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="16.6640625" style="2"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C2" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="52"/>
+      <c r="B3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="52"/>
+      <c r="B4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="52"/>
+      <c r="B5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="53"/>
+      <c r="B7" s="21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="C7" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="53"/>
+      <c r="B8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="C8" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="53"/>
+      <c r="B9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="53"/>
+      <c r="B10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="54"/>
+      <c r="B21" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="54"/>
+      <c r="B22" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="54"/>
+      <c r="B23" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="54"/>
+      <c r="B24" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="54"/>
+      <c r="B25" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="54"/>
+      <c r="B26" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="54"/>
+      <c r="B27" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="54"/>
+      <c r="B28" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="54"/>
+      <c r="B29" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="54"/>
+      <c r="B30" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="54"/>
+      <c r="B31" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="54"/>
+      <c r="B32" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="54"/>
+      <c r="B33" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="54"/>
+      <c r="B34" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="54"/>
+      <c r="B35" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="54"/>
+      <c r="B36" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="54"/>
+      <c r="B37" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="54"/>
+      <c r="B38" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="55"/>
+      <c r="B40" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="55"/>
+      <c r="B41" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="55"/>
+      <c r="B42" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="56"/>
+      <c r="B44" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="56"/>
+      <c r="B45" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="56"/>
+      <c r="B46" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="51"/>
+      <c r="B48" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="51"/>
+      <c r="B49" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="51"/>
+      <c r="B50" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="51"/>
+      <c r="B51" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A52" s="51"/>
+      <c r="B52" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A53" s="51"/>
+      <c r="B53" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="51"/>
+      <c r="B54" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="3">
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="51"/>
+      <c r="B55" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="3">
+    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="51"/>
+      <c r="B56" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A57" s="51"/>
+      <c r="B57" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="51"/>
+      <c r="B58" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A60" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46"/>
-      <c r="B46"/>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="23"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="23"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="23"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="23"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="23"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A47:A58"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>